--- a/biology/Zoologie/Battus_polystictus/Battus_polystictus.xlsx
+++ b/biology/Zoologie/Battus_polystictus/Battus_polystictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Battus polystictus est une espèce de lépidoptères (papillons) de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Battus.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Battus polystictus a été décrit par Butler en 1874 sous le nom initial de Papilio polystictus[1].
-Sous-espèces
-Battus polystictus polystictus
-Battus polystictus galenus (Fruhstorfer, 1907)[1].
-Noms vernaculaires
-Battus polystictus se nomme  Polysticto en Argentine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus polystictus a été décrit par Butler en 1874 sous le nom initial de Papilio polystictus.
 </t>
         </is>
       </c>
@@ -544,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Battus polystictus polystictus
+Battus polystictus galenus (Fruhstorfer, 1907).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Battus_polystictus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_polystictus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus polystictus se nomme  Polysticto en Argentine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Battus_polystictus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_polystictus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Battus polystictus est un moyennement grand papillon au corps marron à abdomen vert jaune, au bord externe des ailes festonnées et celui des ailes antérieures concave. Le dessus est marron foncé à marron doré clair suffusé de vert orné d'une ligne submarginale incomplète de chevrons jaunes aux ailes antérieures et d'une bande submarginale de taches jaunes aux ailes postérieures.
 Le revers est marron avec aux ailes postérieures une ligne submarginale de chevrons rouges.
@@ -555,68 +640,109 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Battus_polystictus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Battus_polystictus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Aristoloches, Aristolochia brasiliensis, Aristolochia fimbriata et Aristolochia triangularis[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Aristoloches, Aristolochia brasiliensis, Aristolochia fimbriata et Aristolochia triangularis.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Battus_polystictus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Battus_polystictus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Battus polystictus est présent au Surinam, au Brésil, en Uruguay et en Argentine[1],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus polystictus est présent au Surinam, au Brésil, en Uruguay et en Argentine,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Battus_polystictus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_polystictus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
